--- a/excel/music_config.xlsx
+++ b/excel/music_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="12780"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,12 +55,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+只针对音效，不针对bgm
+填0就是无CD，重复触发时打断上一个
+填具体数字就是音效触发后（触发不是播放完）
+多长时间后再能再次触发
+单位秒</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -71,6 +97,9 @@
     <t>音效的类型</t>
   </si>
   <si>
+    <t>音效内置cd</t>
+  </si>
+  <si>
     <t>音效用途说明</t>
   </si>
   <si>
@@ -83,6 +112,9 @@
     <t>type</t>
   </si>
   <si>
+    <t>cd</t>
+  </si>
+  <si>
     <t>content</t>
   </si>
   <si>
@@ -92,6 +124,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>serve_no</t>
   </si>
   <si>
@@ -101,13 +136,43 @@
     <t>bgm</t>
   </si>
   <si>
-    <t>全局播放的bgm</t>
-  </si>
-  <si>
-    <t>anniu</t>
+    <t>游戏环节的背景音乐</t>
+  </si>
+  <si>
+    <t>dianji</t>
   </si>
   <si>
     <t>所有按钮的点击音效</t>
+  </si>
+  <si>
+    <t>shengli</t>
+  </si>
+  <si>
+    <t>全部螺丝归位爆出彩带时的音效</t>
+  </si>
+  <si>
+    <t>wancheng</t>
+  </si>
+  <si>
+    <t>一个螺母上的螺丝全部归位时的音效</t>
+  </si>
+  <si>
+    <t>shengqi</t>
+  </si>
+  <si>
+    <t>螺丝进入代移动状态音效</t>
+  </si>
+  <si>
+    <t>luoxia</t>
+  </si>
+  <si>
+    <t>每个螺丝移动到位时的音效</t>
+  </si>
+  <si>
+    <t>jiesuo</t>
+  </si>
+  <si>
+    <t>解锁螺母时的音效</t>
   </si>
 </sst>
 </file>
@@ -280,12 +345,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -741,23 +806,34 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1283,188 +1359,248 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" width="11.1296296296296" customWidth="1"/>
-    <col min="3" max="3" width="13.25" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="1" max="1" width="11.1333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
+    <col min="3" max="4" width="13.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="59.125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="16.5" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="15.6" spans="1:6">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="16.5" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" ht="16.5" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:7">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:7">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:7">
+      <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" ht="15.6" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" ht="15.6" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" ht="15.6" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4">
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/excel/music_config.xlsx
+++ b/excel/music_config.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>编号【KEY】</t>
   </si>
@@ -173,6 +173,24 @@
   </si>
   <si>
     <t>解锁螺母时的音效</t>
+  </si>
+  <si>
+    <t>xing1</t>
+  </si>
+  <si>
+    <t>获得第1个星星的音效</t>
+  </si>
+  <si>
+    <t>xing2</t>
+  </si>
+  <si>
+    <t>获得第2个星星的音效</t>
+  </si>
+  <si>
+    <t>xing3</t>
+  </si>
+  <si>
+    <t>获得第3个星星的音效</t>
   </si>
 </sst>
 </file>
@@ -806,16 +824,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -827,12 +842,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1359,224 +1368,224 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.1333333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="13.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="59.125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="11.1333333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="13.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" ht="16.5" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" ht="16.5" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" ht="16.5" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>2</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>0</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:7">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>3</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>0</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>0</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:7">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>6</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1584,23 +1593,74 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>0</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5">
+        <v>9</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5">
+        <v>10</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
